--- a/data/trans_orig/P17A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC745CA-A10E-4199-9D18-EAFFDB393AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5C9BCF-FCBE-4A62-B620-05998484CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25CD1769-076B-4813-8F4A-839457FBC2DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72D4ABC1-0FA5-4E6C-9FA5-C5F1DAD3936B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,72%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,28%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>21,67%</t>
+    <t>21,73%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>78,33%</t>
+    <t>78,27%</t>
   </si>
   <si>
     <t>84,45%</t>
@@ -176,19 +176,19 @@
     <t>71,33%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,1072 +254,1102 @@
     <t>21,35%</t>
   </si>
   <si>
-    <t>18,15%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A8F95A-61B6-4295-8ACD-0CF5B658F07F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7726BE6B-B3F3-4402-A6D9-70EA63A1427F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2794,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC7298-B9BB-4460-A079-C736B22FA1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1949A-B52C-483A-B16F-4D9379EB58AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3088,13 +3118,13 @@
         <v>200241</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>327</v>
@@ -3103,13 +3133,13 @@
         <v>350926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,10 +3157,10 @@
         <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -3139,13 +3169,13 @@
         <v>381242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>772</v>
@@ -3154,13 +3184,13 @@
         <v>817276</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3258,13 @@
         <v>237620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>329</v>
@@ -3243,13 +3273,13 @@
         <v>356014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>546</v>
@@ -3258,13 +3288,13 @@
         <v>593634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3309,13 @@
         <v>779173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -3294,13 +3324,13 @@
         <v>676170</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1329</v>
@@ -3309,13 +3339,13 @@
         <v>1455343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3413,13 @@
         <v>176411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>210</v>
@@ -3398,13 +3428,13 @@
         <v>231534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>365</v>
@@ -3413,13 +3443,13 @@
         <v>407946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3464,13 @@
         <v>575257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
@@ -3449,13 +3479,13 @@
         <v>544558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3464,13 +3494,13 @@
         <v>1119814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3568,13 @@
         <v>187470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -3553,13 +3583,13 @@
         <v>330893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -3568,13 +3598,13 @@
         <v>518363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3619,13 @@
         <v>754448</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>682</v>
@@ -3604,13 +3634,13 @@
         <v>714681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1409</v>
@@ -3619,13 +3649,13 @@
         <v>1469129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3723,13 @@
         <v>780140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1076</v>
@@ -3708,13 +3738,13 @@
         <v>1155571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -3723,13 +3753,13 @@
         <v>1935711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3774,13 @@
         <v>2632723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2212</v>
@@ -3759,13 +3789,13 @@
         <v>2391667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4692</v>
@@ -3774,13 +3804,13 @@
         <v>5024389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A59A370-A3FB-4D36-B87C-A0E4D8DDB303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58E8ADC-F98C-49C5-83AF-6FE4BB83C7D2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +4011,13 @@
         <v>39397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3996,13 +4026,13 @@
         <v>34935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4011,13 +4041,13 @@
         <v>74333</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4062,13 @@
         <v>77149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4047,13 +4077,13 @@
         <v>78425</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>156</v>
@@ -4062,13 +4092,13 @@
         <v>155573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4166,13 @@
         <v>153802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -4151,13 +4181,13 @@
         <v>213042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>355</v>
@@ -4166,13 +4196,13 @@
         <v>366844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4217,13 @@
         <v>404452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>345</v>
@@ -4202,13 +4232,13 @@
         <v>346437</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -4217,13 +4247,13 @@
         <v>750889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4321,13 @@
         <v>267693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -4306,13 +4336,13 @@
         <v>354824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -4321,13 +4351,13 @@
         <v>622517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4372,13 @@
         <v>754738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4357,13 +4387,13 @@
         <v>688089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -4372,13 +4402,13 @@
         <v>1442827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4476,13 @@
         <v>174766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -4461,13 +4491,13 @@
         <v>250988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -4476,13 +4506,13 @@
         <v>425754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4527,13 @@
         <v>584786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -4512,13 +4542,13 @@
         <v>534023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -4527,13 +4557,13 @@
         <v>1118809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4631,13 @@
         <v>219944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -4616,13 +4646,13 @@
         <v>310530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>501</v>
@@ -4631,13 +4661,13 @@
         <v>530474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4682,13 @@
         <v>717623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>679</v>
@@ -4667,13 +4697,13 @@
         <v>733249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>1390</v>
@@ -4682,13 +4712,13 @@
         <v>1450872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4786,13 @@
         <v>855602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1077</v>
@@ -4771,13 +4801,13 @@
         <v>1164320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>1893</v>
@@ -4786,13 +4816,13 @@
         <v>2019921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4837,13 @@
         <v>2538748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>2261</v>
@@ -4822,13 +4852,13 @@
         <v>2380222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>4676</v>
@@ -4837,13 +4867,13 @@
         <v>4918971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AB8398-69B2-4C41-AE7C-98066BE1436C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1A04E0-A151-47DA-A012-5E7D040FF46D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5074,13 @@
         <v>19626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5059,13 +5089,13 @@
         <v>27984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -5074,13 +5104,13 @@
         <v>47610</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5125,13 @@
         <v>82356</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -5110,13 +5140,13 @@
         <v>102749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -5125,13 +5155,13 @@
         <v>185105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,28 +5229,28 @@
         <v>97718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
       </c>
       <c r="I7" s="7">
-        <v>150163</v>
+        <v>150164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -5229,13 +5259,13 @@
         <v>247881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5280,13 @@
         <v>452105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>740</v>
@@ -5265,13 +5295,13 @@
         <v>441654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>1235</v>
@@ -5280,13 +5310,13 @@
         <v>893759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,7 +5343,7 @@
         <v>995</v>
       </c>
       <c r="I9" s="7">
-        <v>591817</v>
+        <v>591818</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5354,13 +5384,13 @@
         <v>194921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>350</v>
@@ -5369,13 +5399,13 @@
         <v>239575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -5384,13 +5414,13 @@
         <v>434496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5435,13 @@
         <v>844327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>1164</v>
@@ -5420,13 +5450,13 @@
         <v>818978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>1934</v>
@@ -5435,13 +5465,13 @@
         <v>1663305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5539,13 @@
         <v>139298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -5524,13 +5554,13 @@
         <v>162344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>380</v>
@@ -5539,13 +5569,13 @@
         <v>301642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5590,13 @@
         <v>588585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>806</v>
@@ -5575,13 +5605,13 @@
         <v>712027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1342</v>
@@ -5590,13 +5620,13 @@
         <v>1300612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5694,13 @@
         <v>217760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>452</v>
@@ -5679,13 +5709,13 @@
         <v>342588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>692</v>
@@ -5694,13 +5724,13 @@
         <v>560348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5745,13 @@
         <v>746938</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>1106</v>
@@ -5730,13 +5760,13 @@
         <v>806270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>1871</v>
@@ -5745,13 +5775,13 @@
         <v>1553208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5849,13 @@
         <v>669323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1351</v>
@@ -5834,13 +5864,13 @@
         <v>922655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>2063</v>
@@ -5849,13 +5879,13 @@
         <v>1591977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5900,13 @@
         <v>2714311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>4006</v>
@@ -5885,13 +5915,13 @@
         <v>2881677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>6668</v>
@@ -5900,13 +5930,13 @@
         <v>5595989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5C9BCF-FCBE-4A62-B620-05998484CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE32CF3B-04DD-4ACA-AB00-05E80EA4DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72D4ABC1-0FA5-4E6C-9FA5-C5F1DAD3936B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCCED03-442F-4BC6-B574-A9F6692DD28A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>17,72%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1237 +107,1213 @@
     <t>82,28%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>25,1%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>74,16%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
   </si>
   <si>
     <t>78,28%</t>
@@ -1761,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7726BE6B-B3F3-4402-A6D9-70EA63A1427F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87F1217-4CBC-4FA6-8067-1003CE3EED18}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1949A-B52C-483A-B16F-4D9379EB58AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288ACE00-D7B2-4882-B8C9-23C81A84A18F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3139,7 +3115,7 @@
         <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,10 +3133,10 @@
         <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -3169,13 +3145,13 @@
         <v>381242</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>772</v>
@@ -3184,13 +3160,13 @@
         <v>817276</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3234,13 @@
         <v>237620</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>329</v>
@@ -3273,13 +3249,13 @@
         <v>356014</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>546</v>
@@ -3288,13 +3264,13 @@
         <v>593634</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3285,13 @@
         <v>779173</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -3324,13 +3300,13 @@
         <v>676170</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1329</v>
@@ -3339,13 +3315,13 @@
         <v>1455343</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3389,13 @@
         <v>176411</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>210</v>
@@ -3428,13 +3404,13 @@
         <v>231534</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>365</v>
@@ -3443,13 +3419,13 @@
         <v>407946</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3440,13 @@
         <v>575257</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
@@ -3479,13 +3455,13 @@
         <v>544558</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3494,13 +3470,13 @@
         <v>1119814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3544,13 @@
         <v>187470</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -3583,13 +3559,13 @@
         <v>330893</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -3598,13 +3574,13 @@
         <v>518363</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3595,13 @@
         <v>754448</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>682</v>
@@ -3634,13 +3610,13 @@
         <v>714681</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1409</v>
@@ -3649,13 +3625,13 @@
         <v>1469129</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3699,13 @@
         <v>780140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>1076</v>
@@ -3738,13 +3714,13 @@
         <v>1155571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -3753,13 +3729,13 @@
         <v>1935711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3750,13 @@
         <v>2632723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>2212</v>
@@ -3789,28 +3765,28 @@
         <v>2391667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4692</v>
       </c>
       <c r="N20" s="7">
-        <v>5024389</v>
+        <v>5024390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,7 +3828,7 @@
         <v>6485</v>
       </c>
       <c r="N21" s="7">
-        <v>6960100</v>
+        <v>6960101</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3887,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58E8ADC-F98C-49C5-83AF-6FE4BB83C7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0CC9E4-3DD8-41F9-A78A-F9A6DD35D580}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +3987,13 @@
         <v>39397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -4026,13 +4002,13 @@
         <v>34935</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4041,13 +4017,13 @@
         <v>74333</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4038,13 @@
         <v>77149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4077,13 +4053,13 @@
         <v>78425</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>156</v>
@@ -4092,13 +4068,13 @@
         <v>155573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4142,13 @@
         <v>153802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -4181,13 +4157,13 @@
         <v>213042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>355</v>
@@ -4196,13 +4172,13 @@
         <v>366844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4193,13 @@
         <v>404452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>345</v>
@@ -4232,13 +4208,13 @@
         <v>346437</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -4247,13 +4223,13 @@
         <v>750889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4297,13 @@
         <v>267693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -4336,13 +4312,13 @@
         <v>354824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -4351,13 +4327,13 @@
         <v>622517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4348,13 @@
         <v>754738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4387,13 +4363,13 @@
         <v>688089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -4402,13 +4378,13 @@
         <v>1442827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4452,13 @@
         <v>174766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -4491,13 +4467,13 @@
         <v>250988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -4506,13 +4482,13 @@
         <v>425754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4503,13 @@
         <v>584786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -4542,13 +4518,13 @@
         <v>534023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -4557,13 +4533,13 @@
         <v>1118809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4607,13 @@
         <v>219944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -4646,13 +4622,13 @@
         <v>310530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>501</v>
@@ -4661,13 +4637,13 @@
         <v>530474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4658,13 @@
         <v>717623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>679</v>
@@ -4697,13 +4673,13 @@
         <v>733249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>1390</v>
@@ -4712,13 +4688,13 @@
         <v>1450872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4762,13 @@
         <v>855602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>1077</v>
@@ -4801,13 +4777,13 @@
         <v>1164320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>1893</v>
@@ -4816,13 +4792,13 @@
         <v>2019921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4813,13 @@
         <v>2538748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>2261</v>
@@ -4852,13 +4828,13 @@
         <v>2380222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>4676</v>
@@ -4867,13 +4843,13 @@
         <v>4918971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1A04E0-A151-47DA-A012-5E7D040FF46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD7835B-6200-4AAC-BA0F-87FA88EE4337}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5050,13 @@
         <v>19626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5089,13 +5065,13 @@
         <v>27984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -5104,13 +5080,13 @@
         <v>47610</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5101,13 @@
         <v>82356</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -5140,13 +5116,13 @@
         <v>102749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -5155,13 +5131,13 @@
         <v>185105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5205,13 @@
         <v>97718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
@@ -5244,13 +5220,13 @@
         <v>150164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -5259,13 +5235,13 @@
         <v>247881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5256,13 @@
         <v>452105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>740</v>
@@ -5295,13 +5271,13 @@
         <v>441654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>1235</v>
@@ -5310,13 +5286,13 @@
         <v>893759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5360,13 @@
         <v>194921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>350</v>
@@ -5399,13 +5375,13 @@
         <v>239575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -5414,13 +5390,13 @@
         <v>434496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5411,13 @@
         <v>844327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1164</v>
@@ -5450,13 +5426,13 @@
         <v>818978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>1934</v>
@@ -5465,13 +5441,13 @@
         <v>1663305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5515,13 @@
         <v>139298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -5554,13 +5530,13 @@
         <v>162344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>380</v>
@@ -5569,13 +5545,13 @@
         <v>301642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5566,13 @@
         <v>588585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>806</v>
@@ -5605,13 +5581,13 @@
         <v>712027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1342</v>
@@ -5620,13 +5596,13 @@
         <v>1300612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5670,13 @@
         <v>217760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>452</v>
@@ -5709,13 +5685,13 @@
         <v>342588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>692</v>
@@ -5724,13 +5700,13 @@
         <v>560348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5721,13 @@
         <v>746938</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>1106</v>
@@ -5760,13 +5736,13 @@
         <v>806270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>1871</v>
@@ -5775,13 +5751,13 @@
         <v>1553208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,10 +5825,10 @@
         <v>669323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>70</v>
@@ -5864,13 +5840,13 @@
         <v>922655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>2063</v>
@@ -5879,13 +5855,13 @@
         <v>1591977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5876,13 @@
         <v>2714311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4006</v>
@@ -5915,13 +5891,13 @@
         <v>2881677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>6668</v>
@@ -5930,13 +5906,13 @@
         <v>5595989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE32CF3B-04DD-4ACA-AB00-05E80EA4DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{787D2403-838D-4E2C-9430-188F83BC69F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCCED03-442F-4BC6-B574-A9F6692DD28A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{397D0D00-D709-45C8-A72B-B6DA3772692B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,28%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,41%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,1135 +197,1129 @@
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,4%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>75,58%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87F1217-4CBC-4FA6-8067-1003CE3EED18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC084E1-0499-4F03-A8DF-C2D655CADB70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2800,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288ACE00-D7B2-4882-B8C9-23C81A84A18F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BBACE8-9792-47EF-B19C-407A4DCE1A31}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,13 +3088,13 @@
         <v>200241</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>327</v>
@@ -3109,13 +3103,13 @@
         <v>350926</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3139,13 @@
         <v>381242</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>772</v>
@@ -3160,10 +3154,10 @@
         <v>817276</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>158</v>
@@ -3422,10 +3416,10 @@
         <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3434,13 @@
         <v>575257</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
@@ -3455,13 +3449,13 @@
         <v>544558</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3470,13 +3464,13 @@
         <v>1119814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3538,13 @@
         <v>187470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -3559,13 +3553,13 @@
         <v>330893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -3574,13 +3568,13 @@
         <v>518363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3589,13 @@
         <v>754448</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>682</v>
@@ -3610,13 +3604,13 @@
         <v>714681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1409</v>
@@ -3625,13 +3619,13 @@
         <v>1469129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3693,13 @@
         <v>780140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>1076</v>
@@ -3714,13 +3708,13 @@
         <v>1155571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -3729,13 +3723,13 @@
         <v>1935711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3744,13 @@
         <v>2632723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2212</v>
@@ -3765,28 +3759,28 @@
         <v>2391667</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4692</v>
       </c>
       <c r="N20" s="7">
-        <v>5024390</v>
+        <v>5024389</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3822,7 @@
         <v>6485</v>
       </c>
       <c r="N21" s="7">
-        <v>6960101</v>
+        <v>6960100</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3863,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0CC9E4-3DD8-41F9-A78A-F9A6DD35D580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A19CCDD-0A33-4F95-9D96-CF0FCE58AD04}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +3981,13 @@
         <v>39397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -4002,13 +3996,13 @@
         <v>34935</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4017,13 +4011,13 @@
         <v>74333</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4032,13 @@
         <v>77149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -4053,13 +4047,13 @@
         <v>78425</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>156</v>
@@ -4068,13 +4062,13 @@
         <v>155573</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4136,13 @@
         <v>153802</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -4157,13 +4151,13 @@
         <v>213042</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>355</v>
@@ -4172,13 +4166,13 @@
         <v>366844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4187,13 @@
         <v>404452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>345</v>
@@ -4208,13 +4202,13 @@
         <v>346437</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -4223,13 +4217,13 @@
         <v>750889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4291,13 @@
         <v>267693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -4312,13 +4306,13 @@
         <v>354824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -4327,13 +4321,13 @@
         <v>622517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4342,13 @@
         <v>754738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -4363,13 +4357,13 @@
         <v>688089</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
@@ -4378,13 +4372,13 @@
         <v>1442827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4446,13 @@
         <v>174766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -4467,13 +4461,13 @@
         <v>250988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -4482,13 +4476,13 @@
         <v>425754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4497,13 @@
         <v>584786</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -4518,13 +4512,13 @@
         <v>534023</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -4533,10 +4527,10 @@
         <v>1118809</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>293</v>
@@ -4613,7 +4607,7 @@
         <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -4622,13 +4616,13 @@
         <v>310530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>501</v>
@@ -4637,13 +4631,13 @@
         <v>530474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4652,13 @@
         <v>717623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>679</v>
@@ -4673,13 +4667,13 @@
         <v>733249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>1390</v>
@@ -4688,13 +4682,13 @@
         <v>1450872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4756,13 @@
         <v>855602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>1077</v>
@@ -4777,13 +4771,13 @@
         <v>1164320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>1893</v>
@@ -4792,13 +4786,13 @@
         <v>2019921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4807,13 @@
         <v>2538748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>2261</v>
@@ -4828,13 +4822,13 @@
         <v>2380222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>4676</v>
@@ -4843,13 +4837,13 @@
         <v>4918971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD7835B-6200-4AAC-BA0F-87FA88EE4337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD23DC3-6359-4187-9214-D8F48B468191}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5044,13 @@
         <v>19626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5065,13 +5059,13 @@
         <v>27984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -5080,13 +5074,13 @@
         <v>47610</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5095,13 @@
         <v>82356</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -5116,13 +5110,13 @@
         <v>102749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -5131,13 +5125,13 @@
         <v>185105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,28 +5199,28 @@
         <v>97718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
       </c>
       <c r="I7" s="7">
-        <v>150164</v>
+        <v>150163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>372</v>
@@ -5235,13 +5229,13 @@
         <v>247881</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5250,13 @@
         <v>452105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>740</v>
@@ -5271,13 +5265,13 @@
         <v>441654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>1235</v>
@@ -5286,13 +5280,13 @@
         <v>893759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5313,7 @@
         <v>995</v>
       </c>
       <c r="I9" s="7">
-        <v>591818</v>
+        <v>591817</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5360,13 +5354,13 @@
         <v>194921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>350</v>
@@ -5375,13 +5369,13 @@
         <v>239575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -5390,13 +5384,13 @@
         <v>434496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5405,13 @@
         <v>844327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>1164</v>
@@ -5426,10 +5420,10 @@
         <v>818978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>375</v>
@@ -5685,13 +5679,13 @@
         <v>342588</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>692</v>
@@ -5700,13 +5694,13 @@
         <v>560348</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5715,13 @@
         <v>746938</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>1106</v>
@@ -5736,13 +5730,13 @@
         <v>806270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>1871</v>
@@ -5751,13 +5745,13 @@
         <v>1553208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5819,13 @@
         <v>669323</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1351</v>
@@ -5840,13 +5834,13 @@
         <v>922655</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>2063</v>
@@ -5855,13 +5849,13 @@
         <v>1591977</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5870,13 @@
         <v>2714311</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4006</v>
@@ -5891,13 +5885,13 @@
         <v>2881677</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>6668</v>
@@ -5906,13 +5900,13 @@
         <v>5595989</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{787D2403-838D-4E2C-9430-188F83BC69F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E604A27-05A7-42C1-B9BA-674616E33C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{397D0D00-D709-45C8-A72B-B6DA3772692B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC66CA56-C498-4299-B2D7-C14376FA8890}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,1258 +68,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC084E1-0499-4F03-A8DF-C2D655CADB70}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FAAF0E-1DC7-4604-A885-80E3D6C8C409}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7">
-        <v>20444</v>
+        <v>126974</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="I4" s="7">
-        <v>49055</v>
+        <v>214101</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1879,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="N4" s="7">
-        <v>69499</v>
+        <v>341076</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1900,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>86</v>
+        <v>553</v>
       </c>
       <c r="D5" s="7">
-        <v>94914</v>
+        <v>567038</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1915,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="I5" s="7">
-        <v>63700</v>
+        <v>474250</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1930,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>158</v>
+        <v>1030</v>
       </c>
       <c r="N5" s="7">
-        <v>158614</v>
+        <v>1041287</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1951,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1981,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7">
-        <v>106530</v>
+        <v>192352</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2019,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="I7" s="7">
-        <v>165046</v>
+        <v>307419</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2034,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>274</v>
+        <v>470</v>
       </c>
       <c r="N7" s="7">
-        <v>271577</v>
+        <v>499771</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2055,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>467</v>
+        <v>713</v>
       </c>
       <c r="D8" s="7">
-        <v>472124</v>
+        <v>769448</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2070,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>405</v>
+        <v>620</v>
       </c>
       <c r="I8" s="7">
-        <v>410550</v>
+        <v>659974</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2085,10 +1920,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>872</v>
+        <v>1333</v>
       </c>
       <c r="N8" s="7">
-        <v>882673</v>
+        <v>1429422</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2106,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2121,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>967393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2136,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1929193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2159,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7">
-        <v>192352</v>
+        <v>144649</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2174,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>307419</v>
+        <v>199152</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2189,10 +2024,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>470</v>
+        <v>339</v>
       </c>
       <c r="N10" s="7">
-        <v>499771</v>
+        <v>343801</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2210,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>713</v>
+        <v>504</v>
       </c>
       <c r="D11" s="7">
-        <v>769448</v>
+        <v>532926</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2225,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>620</v>
+        <v>493</v>
       </c>
       <c r="I11" s="7">
-        <v>659974</v>
+        <v>484689</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2240,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1333</v>
+        <v>997</v>
       </c>
       <c r="N11" s="7">
-        <v>1429422</v>
+        <v>1017615</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2261,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>677575</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2291,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1803</v>
+        <v>1336</v>
       </c>
       <c r="N12" s="7">
-        <v>1929193</v>
+        <v>1361416</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="D13" s="7">
-        <v>144649</v>
+        <v>195326</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2329,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="I13" s="7">
-        <v>199152</v>
+        <v>327697</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2344,10 +2179,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="N13" s="7">
-        <v>343801</v>
+        <v>523023</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2365,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>504</v>
+        <v>780</v>
       </c>
       <c r="D14" s="7">
-        <v>532926</v>
+        <v>745161</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2380,10 +2215,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>493</v>
+        <v>683</v>
       </c>
       <c r="I14" s="7">
-        <v>484689</v>
+        <v>709903</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2395,10 +2230,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>997</v>
+        <v>1463</v>
       </c>
       <c r="N14" s="7">
-        <v>1017615</v>
+        <v>1455064</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2416,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>992</v>
       </c>
       <c r="D15" s="7">
-        <v>677575</v>
+        <v>940487</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2431,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1037600</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2446,10 +2281,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1336</v>
+        <v>1988</v>
       </c>
       <c r="N15" s="7">
-        <v>1361416</v>
+        <v>1978087</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2463,55 +2298,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>212</v>
+        <v>661</v>
       </c>
       <c r="D16" s="7">
-        <v>195326</v>
+        <v>659302</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1022</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1048370</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>313</v>
-      </c>
-      <c r="I16" s="7">
-        <v>327697</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1683</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1707672</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>525</v>
-      </c>
-      <c r="N16" s="7">
-        <v>523023</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2355,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>780</v>
+        <v>2550</v>
       </c>
       <c r="D17" s="7">
-        <v>745161</v>
+        <v>2614572</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2273</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2328815</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>683</v>
-      </c>
-      <c r="I17" s="7">
-        <v>709903</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4823</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4943387</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1463</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1455064</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>992</v>
+        <v>3211</v>
       </c>
       <c r="D18" s="7">
-        <v>940487</v>
+        <v>3273874</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2586,10 +2421,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1037600</v>
+        <v>3377185</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2601,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1988</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1978087</v>
+        <v>6651059</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2617,171 +2452,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>661</v>
-      </c>
-      <c r="D19" s="7">
-        <v>659302</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1048370</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1683</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1707672</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2550</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2614572</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2273</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2328815</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4823</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4943387</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3211</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3273874</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377185</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6651059</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BBACE8-9792-47EF-B19C-407A4DCE1A31}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DA751-FF96-4B04-B70B-B586A830D8F1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D4" s="7">
-        <v>27954</v>
+        <v>178639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="I4" s="7">
-        <v>36889</v>
+        <v>237130</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="N4" s="7">
-        <v>64843</v>
+        <v>415769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>506</v>
       </c>
       <c r="D5" s="7">
-        <v>87811</v>
+        <v>523845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="I5" s="7">
-        <v>75016</v>
+        <v>456258</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>159</v>
+        <v>931</v>
       </c>
       <c r="N5" s="7">
-        <v>162827</v>
+        <v>980103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702484</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693388</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3044,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1320</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1395872</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3067,49 +2746,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="D7" s="7">
-        <v>150686</v>
+        <v>237620</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="I7" s="7">
-        <v>200241</v>
+        <v>356014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>327</v>
+        <v>546</v>
       </c>
       <c r="N7" s="7">
-        <v>350926</v>
+        <v>593634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>412</v>
+        <v>718</v>
       </c>
       <c r="D8" s="7">
-        <v>436033</v>
+        <v>779173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>360</v>
+        <v>611</v>
       </c>
       <c r="I8" s="7">
-        <v>381242</v>
+        <v>676170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>772</v>
+        <v>1329</v>
       </c>
       <c r="N8" s="7">
-        <v>817276</v>
+        <v>1455343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>586719</v>
+        <v>1016793</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3184,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>581483</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3199,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1168202</v>
+        <v>2048977</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3222,49 +2901,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="D10" s="7">
-        <v>237620</v>
+        <v>176411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="I10" s="7">
-        <v>356014</v>
+        <v>231534</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>546</v>
+        <v>365</v>
       </c>
       <c r="N10" s="7">
-        <v>593634</v>
+        <v>407946</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>718</v>
+        <v>529</v>
       </c>
       <c r="D11" s="7">
-        <v>779173</v>
+        <v>575257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>611</v>
+        <v>494</v>
       </c>
       <c r="I11" s="7">
-        <v>676170</v>
+        <v>544558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1329</v>
+        <v>1023</v>
       </c>
       <c r="N11" s="7">
-        <v>1455343</v>
+        <v>1119814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>684</v>
       </c>
       <c r="D12" s="7">
-        <v>1016793</v>
+        <v>751668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3339,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>776092</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3354,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>2048977</v>
+        <v>1527760</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3377,49 +3056,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>176411</v>
+        <v>187470</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="I13" s="7">
-        <v>231534</v>
+        <v>330893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>365</v>
+        <v>493</v>
       </c>
       <c r="N13" s="7">
-        <v>407946</v>
+        <v>518363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>529</v>
+        <v>727</v>
       </c>
       <c r="D14" s="7">
-        <v>575257</v>
+        <v>754449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>494</v>
+        <v>682</v>
       </c>
       <c r="I14" s="7">
-        <v>544558</v>
+        <v>714681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>1023</v>
+        <v>1409</v>
       </c>
       <c r="N14" s="7">
-        <v>1119814</v>
+        <v>1469129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>684</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7">
-        <v>751668</v>
+        <v>941919</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3494,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>776092</v>
+        <v>1045574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3509,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1388</v>
+        <v>1902</v>
       </c>
       <c r="N15" s="7">
-        <v>1527760</v>
+        <v>1987492</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3526,55 +3205,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>717</v>
+      </c>
+      <c r="D16" s="7">
+        <v>780140</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="7">
-        <v>187470</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" s="7">
-        <v>315</v>
+        <v>1076</v>
       </c>
       <c r="I16" s="7">
-        <v>330893</v>
+        <v>1155571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>493</v>
+        <v>1793</v>
       </c>
       <c r="N16" s="7">
-        <v>518363</v>
+        <v>1935711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>727</v>
+        <v>2480</v>
       </c>
       <c r="D17" s="7">
-        <v>754448</v>
+        <v>2632723</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>682</v>
+        <v>2212</v>
       </c>
       <c r="I17" s="7">
-        <v>714681</v>
+        <v>2391667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1409</v>
+        <v>4692</v>
       </c>
       <c r="N17" s="7">
-        <v>1469129</v>
+        <v>5024390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>905</v>
+        <v>3197</v>
       </c>
       <c r="D18" s="7">
-        <v>941918</v>
+        <v>3412863</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3649,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1045574</v>
+        <v>3547238</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3664,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1902</v>
+        <v>6485</v>
       </c>
       <c r="N18" s="7">
-        <v>1987492</v>
+        <v>6960101</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3680,171 +3359,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>717</v>
-      </c>
-      <c r="D19" s="7">
-        <v>780140</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1076</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1155571</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1793</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1935711</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2480</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2632723</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2212</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2391667</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4692</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5024389</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3412863</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3547238</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6485</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6960100</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A19CCDD-0A33-4F95-9D96-CF0FCE58AD04}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CA893E-0BB3-4007-B696-70CCF9DCAE72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D4" s="7">
-        <v>39397</v>
+        <v>193199</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I4" s="7">
-        <v>34935</v>
+        <v>247978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="N4" s="7">
-        <v>74333</v>
+        <v>441177</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="D5" s="7">
-        <v>77149</v>
+        <v>481601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="I5" s="7">
-        <v>78425</v>
+        <v>424861</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>156</v>
+        <v>891</v>
       </c>
       <c r="N5" s="7">
-        <v>155573</v>
+        <v>906462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4092,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4107,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4130,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="D7" s="7">
-        <v>153802</v>
+        <v>267693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="I7" s="7">
-        <v>213042</v>
+        <v>354824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>355</v>
+        <v>574</v>
       </c>
       <c r="N7" s="7">
-        <v>366844</v>
+        <v>622517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>390</v>
+        <v>703</v>
       </c>
       <c r="D8" s="7">
-        <v>404452</v>
+        <v>754738</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>345</v>
+        <v>651</v>
       </c>
       <c r="I8" s="7">
-        <v>346437</v>
+        <v>688089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>735</v>
+        <v>1354</v>
       </c>
       <c r="N8" s="7">
-        <v>750889</v>
+        <v>1442827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4247,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4262,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4285,49 +3808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>267693</v>
+        <v>174766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>354824</v>
+        <v>250988</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="N10" s="7">
-        <v>622517</v>
+        <v>425754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>703</v>
+        <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>754738</v>
+        <v>584786</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>651</v>
+        <v>505</v>
       </c>
       <c r="I11" s="7">
-        <v>688089</v>
+        <v>534023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>1354</v>
+        <v>1041</v>
       </c>
       <c r="N11" s="7">
-        <v>1442827</v>
+        <v>1118809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4402,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4417,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4440,49 +3963,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="D13" s="7">
-        <v>174766</v>
+        <v>219944</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="I13" s="7">
-        <v>250988</v>
+        <v>310530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>391</v>
+        <v>501</v>
       </c>
       <c r="N13" s="7">
-        <v>425754</v>
+        <v>530474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>536</v>
+        <v>711</v>
       </c>
       <c r="D14" s="7">
-        <v>584786</v>
+        <v>717623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
-        <v>505</v>
+        <v>679</v>
       </c>
       <c r="I14" s="7">
-        <v>534023</v>
+        <v>733249</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
-        <v>1041</v>
+        <v>1390</v>
       </c>
       <c r="N14" s="7">
-        <v>1118809</v>
+        <v>1450872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4557,10 +4080,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4572,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4589,55 +4112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>221</v>
+        <v>816</v>
       </c>
       <c r="D16" s="7">
-        <v>219944</v>
+        <v>855602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>280</v>
+        <v>1077</v>
       </c>
       <c r="I16" s="7">
-        <v>310530</v>
+        <v>1164320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>501</v>
+        <v>1893</v>
       </c>
       <c r="N16" s="7">
-        <v>530474</v>
+        <v>2019921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>711</v>
+        <v>2415</v>
       </c>
       <c r="D17" s="7">
-        <v>717623</v>
+        <v>2538748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>679</v>
+        <v>2261</v>
       </c>
       <c r="I17" s="7">
-        <v>733249</v>
+        <v>2380222</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>1390</v>
+        <v>4676</v>
       </c>
       <c r="N17" s="7">
-        <v>1450872</v>
+        <v>4918971</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4712,10 +4235,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4727,10 +4250,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4743,171 +4266,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>816</v>
-      </c>
-      <c r="D19" s="7">
-        <v>855602</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1077</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1164320</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1893</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2019921</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2415</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2538748</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2261</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2380222</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4676</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4918971</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD23DC3-6359-4187-9214-D8F48B468191}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C2DB6-996D-4477-ACDD-94C201167A45}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="D4" s="7">
-        <v>19626</v>
+        <v>113108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="I4" s="7">
-        <v>27984</v>
+        <v>168083</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>447</v>
       </c>
       <c r="N4" s="7">
-        <v>47610</v>
+        <v>281191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>591</v>
       </c>
       <c r="D5" s="7">
-        <v>82356</v>
+        <v>522333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>190</v>
+        <v>930</v>
       </c>
       <c r="I5" s="7">
-        <v>102749</v>
+        <v>506546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>286</v>
+        <v>1521</v>
       </c>
       <c r="N5" s="7">
-        <v>185105</v>
+        <v>1028879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5155,10 +4522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674629</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5170,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310070</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5193,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="D7" s="7">
-        <v>97718</v>
+        <v>184235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="I7" s="7">
-        <v>150163</v>
+        <v>217045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="N7" s="7">
-        <v>247881</v>
+        <v>401280</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>495</v>
+        <v>770</v>
       </c>
       <c r="D8" s="7">
-        <v>452105</v>
+        <v>1008629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>740</v>
+        <v>1164</v>
       </c>
       <c r="I8" s="7">
-        <v>441654</v>
+        <v>740170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>1235</v>
+        <v>1934</v>
       </c>
       <c r="N8" s="7">
-        <v>893759</v>
+        <v>1748799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5310,10 +4677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591817</v>
+        <v>957215</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5325,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141640</v>
+        <v>2150079</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5348,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>194921</v>
+        <v>133665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>350</v>
+        <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>239575</v>
+        <v>148782</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="N10" s="7">
-        <v>434496</v>
+        <v>282447</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>770</v>
+        <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>844327</v>
+        <v>570199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>1164</v>
+        <v>806</v>
       </c>
       <c r="I11" s="7">
-        <v>818978</v>
+        <v>784584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>1934</v>
+        <v>1342</v>
       </c>
       <c r="N11" s="7">
-        <v>1663305</v>
+        <v>1354782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703864</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5465,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058553</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5480,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2097801</v>
+        <v>1637229</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5503,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>139298</v>
+        <v>210347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="I13" s="7">
-        <v>162344</v>
+        <v>362652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>380</v>
+        <v>692</v>
       </c>
       <c r="N13" s="7">
-        <v>301642</v>
+        <v>572999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>536</v>
+        <v>765</v>
       </c>
       <c r="D14" s="7">
-        <v>588585</v>
+        <v>715863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>806</v>
+        <v>1106</v>
       </c>
       <c r="I14" s="7">
-        <v>712027</v>
+        <v>730771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>1342</v>
+        <v>1871</v>
       </c>
       <c r="N14" s="7">
-        <v>1300612</v>
+        <v>1446634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>727883</v>
+        <v>926210</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5620,10 +4987,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093423</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5635,10 +5002,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2563</v>
       </c>
       <c r="N15" s="7">
-        <v>1602254</v>
+        <v>2019633</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5652,55 +5019,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>240</v>
+        <v>712</v>
       </c>
       <c r="D16" s="7">
-        <v>217760</v>
+        <v>641355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>452</v>
+        <v>1351</v>
       </c>
       <c r="I16" s="7">
-        <v>342588</v>
+        <v>896562</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>692</v>
+        <v>2063</v>
       </c>
       <c r="N16" s="7">
-        <v>560348</v>
+        <v>1537917</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>765</v>
+        <v>2662</v>
       </c>
       <c r="D17" s="7">
-        <v>746938</v>
+        <v>2817024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
-        <v>1106</v>
+        <v>4006</v>
       </c>
       <c r="I17" s="7">
-        <v>806270</v>
+        <v>2762071</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
-        <v>1871</v>
+        <v>6668</v>
       </c>
       <c r="N17" s="7">
-        <v>1553208</v>
+        <v>5579095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964698</v>
+        <v>3458379</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5775,10 +5142,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1148858</v>
+        <v>3658633</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5790,10 +5157,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2563</v>
+        <v>8731</v>
       </c>
       <c r="N18" s="7">
-        <v>2113556</v>
+        <v>7117012</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5806,171 +5173,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>712</v>
-      </c>
-      <c r="D19" s="7">
-        <v>669323</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1351</v>
-      </c>
-      <c r="I19" s="7">
-        <v>922655</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2063</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1591977</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2662</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2714311</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4006</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2881677</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6668</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5595989</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383634</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804332</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187966</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
